--- a/Codebook/Iraq Admin standard names mapping.xlsx
+++ b/Codebook/Iraq Admin standard names mapping.xlsx
@@ -1162,8 +1162,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100078FB844456CC1439CE7A159479264B8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e652b37c97da46a145b17bf14759fdf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df49477f-2fdb-440d-ba1e-675744a510a7" xmlns:ns3="272bea84-3b1f-4555-a3af-524feb91c688" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e652d81a2ac2134bbb29657bc7abbb78" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100078FB844456CC1439CE7A159479264B8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bbe63590dcd5653d366f40c6ae7d8536">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df49477f-2fdb-440d-ba1e-675744a510a7" xmlns:ns3="272bea84-3b1f-4555-a3af-524feb91c688" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72f0317982ae8a1c83972efe343af839" ns2:_="" ns3:_="">
     <xsd:import namespace="df49477f-2fdb-440d-ba1e-675744a510a7"/>
     <xsd:import namespace="272bea84-3b1f-4555-a3af-524feb91c688"/>
     <xsd:element name="properties">
@@ -1183,6 +1183,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1235,6 +1237,16 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1385,6 +1397,13 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="df49477f-2fdb-440d-ba1e-675744a510a7">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="272bea84-3b1f-4555-a3af-524feb91c688">
+      <UserInfo>
+        <DisplayName>Nawaf ALAWY</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
   </documentManagement>
 </p:properties>
 </file>
@@ -1398,22 +1417,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F03A631-DA35-428A-8D52-794BFFF191B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="df49477f-2fdb-440d-ba1e-675744a510a7"/>
-    <ds:schemaRef ds:uri="272bea84-3b1f-4555-a3af-524feb91c688"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F690CE-F1B3-4B37-80D4-000B58C5CFF1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
